--- a/Répartition_des tâches_Livrable2.xlsx
+++ b/Répartition_des tâches_Livrable2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanne\OneDrive\Bureau\Scripte_Livrable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A155A183-9D79-4D06-BA09-4A05544E3541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA9038-3F83-40EA-AF4A-ED362C4487EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,44 +133,44 @@
     <t>Responsable de la conception, de la création et de l’optimisation de la base de données</t>
   </si>
   <si>
-    <t>Création de la base de données, définition des tables, les vues , relations et des index pour assurerune 
+    <t>Création de la base de données</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport et création d'utilisateur</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport, en collaboration avec Oumaima, et création d'utilisateurs dans la base de données.</t>
+  </si>
+  <si>
+    <t>Responsable de la rédaction du rapport, en collaboration avec Kenza, et de la création du diagramme UML.</t>
+  </si>
+  <si>
+    <t>Readaction du fichier README et suivi des tests</t>
+  </si>
+  <si>
+    <t>Rédaction du README, réalisation des tests sur les scripts développés, correction des erreurs si nécessaire</t>
+  </si>
+  <si>
+    <t>Développement d'un script pour l'insertion , Organisation de réunions et mise à jour du fichier Excel de répartition des tâches</t>
+  </si>
+  <si>
+    <t>Développement du script  python pour l'insertion d'un tableau de données, répartition des tâches et suivi</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport, création du diagramme UML</t>
+  </si>
+  <si>
+    <t>Responsable de la rédaction du rapport et de la création du diagramme UML</t>
+  </si>
+  <si>
+    <t>Responsable de la rédaction du rapport et de la création des utilisateurs dans la base de données</t>
+  </si>
+  <si>
+    <t>Responsable de la rédaction du fichier README, évaluation des performances, suivi des tests et intégration des tests</t>
+  </si>
+  <si>
+    <t>Création de la base de données, définition des tables, les vues et relations pour assurer une 
 gestion optimale des données.</t>
-  </si>
-  <si>
-    <t>Création de la base de données</t>
-  </si>
-  <si>
-    <t>Rédaction du rapport et création d'utilisateur</t>
-  </si>
-  <si>
-    <t>Responsable de la rédaction du rapport et de la création des utilisateurs dans la base de données.</t>
-  </si>
-  <si>
-    <t>Rédaction du rapport, en collaboration avec Oumaima, et création d'utilisateurs dans la base de données.</t>
-  </si>
-  <si>
-    <t>rédaction du rapport, création du diagramme UML</t>
-  </si>
-  <si>
-    <t>Responsable de la rédaction du rapport et de la création du diagramme UML.</t>
-  </si>
-  <si>
-    <t>Responsable de la rédaction du rapport, en collaboration avec Kenza, et de la création du diagramme UML.</t>
-  </si>
-  <si>
-    <t>Readaction du fichier README et suivi des tests</t>
-  </si>
-  <si>
-    <t>Responsable de la rédaction du fichier README, évaluation des performances, suivi des tests et intégration des tests.</t>
-  </si>
-  <si>
-    <t>Rédaction du README, réalisation des tests sur les scripts développés, correction des erreurs si nécessaire</t>
-  </si>
-  <si>
-    <t>Développement d'un script pour l'insertion , Organisation de réunions et mise à jour du fichier Excel de répartition des tâches</t>
-  </si>
-  <si>
-    <t>Développement du script  python pour l'insertion d'un tableau de données, répartition des tâches et suivi</t>
   </si>
 </sst>
 </file>
@@ -641,6 +641,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -661,15 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,26 +988,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1071,7 +1071,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
@@ -1167,20 +1167,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" s="19">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="F10" s="19">
         <v>45656</v>
@@ -1189,37 +1189,37 @@
         <v>18</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>45</v>
+      <c r="D11" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="14">
         <v>45627</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="37">
         <v>45658</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>44</v>
+      <c r="H11" s="36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>4</v>
@@ -1230,62 +1230,62 @@
       <c r="E12" s="16">
         <v>45629</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="37">
         <v>45631</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>33</v>
+      <c r="H12" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E13" s="14">
         <v>45631</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="38">
         <v>45656</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42"/>
+      <c r="B14" s="11" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="14">
         <v>45636</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="39">
         <v>45657</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I14" s="34"/>
     </row>
